--- a/inputs/basefile.xlsx
+++ b/inputs/basefile.xlsx
@@ -441,7 +441,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C2">
         <v>3000</v>

--- a/inputs/basefile.xlsx
+++ b/inputs/basefile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>script</t>
   </si>
@@ -43,7 +43,19 @@
     <t>round</t>
   </si>
   <si>
+    <t>lastupd_dt</t>
+  </si>
+  <si>
+    <t>lastupd_time</t>
+  </si>
+  <si>
     <t>SBIN</t>
+  </si>
+  <si>
+    <t>30-Sep-2019</t>
+  </si>
+  <si>
+    <t>10:29:37</t>
   </si>
 </sst>
 </file>
@@ -401,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,13 +447,19 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>272.1</v>
       </c>
       <c r="C2">
         <v>3000</v>
@@ -450,19 +468,25 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>20190926</v>
+        <v>20191031</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I2">
         <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
